--- a/data/trans_orig/P16A10-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A10-Edad-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicamentos para el corazón en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2533,7 +2533,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2012 (tasa de respuesta: 99,77%)</t>
+          <t>Población según si ha consumido medicamentos para el corazón en las dos últimas semanas en 2012 (tasa de respuesta: 99,77%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4512,7 +4512,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicamentos para el corazón en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6475,7 +6475,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2023 (tasa de respuesta: 99,93%)</t>
+          <t>Población según si ha consumido medicamentos para el corazón en las dos últimas semanas en 2023 (tasa de respuesta: 99,93%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A10-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A10-Edad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4696</v>
+        <v>4120</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001661841309577967</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.009505694174258736</v>
+        <v>0.008338171416156472</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5441</v>
+        <v>4675</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002008846219633286</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01163855957355229</v>
+        <v>0.009999388200045837</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6057</v>
+        <v>6258</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001830548616609082</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.006299637396712142</v>
+        <v>0.006508697529901344</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>493243</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>489368</v>
+        <v>489944</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>494064</v>
@@ -824,7 +824,7 @@
         <v>0.9983381586904221</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9904943058257412</v>
+        <v>0.9916618285838436</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -836,7 +836,7 @@
         <v>466550</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>462048</v>
+        <v>462814</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>467489</v>
@@ -845,7 +845,7 @@
         <v>0.9979911537803667</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9883614404264471</v>
+        <v>0.990000611799954</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>959793</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>955496</v>
+        <v>955295</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>961553</v>
@@ -866,7 +866,7 @@
         <v>0.998169451383391</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9937003626032879</v>
+        <v>0.9934913024700988</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4709</v>
+        <v>4745</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.001271395337164346</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.006402490266551267</v>
+        <v>0.006451152069617506</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5783</v>
+        <v>6346</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.002952622921920809</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.009246226447601697</v>
+        <v>0.0101463305404113</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -1003,19 +1003,19 @@
         <v>2782</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>7810</v>
+        <v>7767</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.002044070604813973</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0006359229778681658</v>
+        <v>0.0006392524422671712</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.005738215774372704</v>
+        <v>0.005707194275809757</v>
       </c>
     </row>
     <row r="8">
@@ -1032,7 +1032,7 @@
         <v>734554</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>730780</v>
+        <v>730744</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>735489</v>
@@ -1041,7 +1041,7 @@
         <v>0.9987286046628356</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9935975097334487</v>
+        <v>0.9935488479303826</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         <v>623647</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>619711</v>
+        <v>619148</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>625494</v>
@@ -1062,7 +1062,7 @@
         <v>0.9970473770780792</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9907537735523984</v>
+        <v>0.9898536694595884</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1074,19 +1074,19 @@
         <v>1358200</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1353172</v>
+        <v>1353215</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1360117</v>
+        <v>1360112</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9979559293951861</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9942617842256276</v>
+        <v>0.9942928057241904</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9993640770221318</v>
+        <v>0.9993607475577329</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>4616</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1808</v>
+        <v>1796</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9393</v>
+        <v>10206</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007239389869809655</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002836171209520497</v>
+        <v>0.002816622725751859</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01473052592372997</v>
+        <v>0.01600512129517863</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1199,19 +1199,19 @@
         <v>7696</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3121</v>
+        <v>3313</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14897</v>
+        <v>15387</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01115732346738534</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00452456159657866</v>
+        <v>0.004803525238428676</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02159719705980789</v>
+        <v>0.02230846571929058</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -1220,19 +1220,19 @@
         <v>12312</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6866</v>
+        <v>6743</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20846</v>
+        <v>21375</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00927523820421213</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005172433279253954</v>
+        <v>0.005080124232053331</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01570469960639085</v>
+        <v>0.01610270268008921</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>633033</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>628256</v>
+        <v>627443</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>635841</v>
+        <v>635853</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9927606101301903</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9852694740762694</v>
+        <v>0.9839948787048213</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9971638287904795</v>
+        <v>0.9971833772742481</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>651</v>
@@ -1270,19 +1270,19 @@
         <v>682048</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>674847</v>
+        <v>674357</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>686623</v>
+        <v>686431</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9888426765326147</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9784028029401899</v>
+        <v>0.9776915342807095</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9954754384034212</v>
+        <v>0.9951964747615715</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1258</v>
@@ -1291,19 +1291,19 @@
         <v>1315082</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1306548</v>
+        <v>1306019</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1320528</v>
+        <v>1320651</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9907247617957878</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.984295300393609</v>
+        <v>0.9838972973199102</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9948275667207458</v>
+        <v>0.9949198757679464</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>12816</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7029</v>
+        <v>7241</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21736</v>
+        <v>22270</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02468651955446568</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01354014874000828</v>
+        <v>0.01394848164521388</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0418683970450358</v>
+        <v>0.0428966631256605</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -1416,19 +1416,19 @@
         <v>17249</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10670</v>
+        <v>10050</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>27301</v>
+        <v>26771</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03345200799494161</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02069206830660717</v>
+        <v>0.01949109179526518</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05294602363493097</v>
+        <v>0.05191840812920758</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>28</v>
@@ -1437,19 +1437,19 @@
         <v>30065</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>19866</v>
+        <v>19731</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>41878</v>
+        <v>42639</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02905441847842433</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0191980185116432</v>
+        <v>0.01906747857991633</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04047028526061014</v>
+        <v>0.04120553771758926</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>506331</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>497411</v>
+        <v>496877</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>512118</v>
+        <v>511906</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9753134804455343</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9581316029549642</v>
+        <v>0.9571033368743395</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9864598512599917</v>
+        <v>0.9860515183547861</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>486</v>
@@ -1487,19 +1487,19 @@
         <v>498393</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>488341</v>
+        <v>488871</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>504972</v>
+        <v>505592</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9665479920050584</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9470539763650691</v>
+        <v>0.9480815918707923</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9793079316933928</v>
+        <v>0.9805089082047347</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>958</v>
@@ -1508,19 +1508,19 @@
         <v>1004724</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>992911</v>
+        <v>992150</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1014923</v>
+        <v>1015058</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9709455815215756</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9595297147393899</v>
+        <v>0.9587944622824104</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9808019814883567</v>
+        <v>0.9809325214200837</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>42847</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>31425</v>
+        <v>32130</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>56132</v>
+        <v>56556</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1107981900889546</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08126298211870574</v>
+        <v>0.08308635371918208</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1451515618843063</v>
+        <v>0.1462493870753986</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -1633,19 +1633,19 @@
         <v>24653</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16445</v>
+        <v>15678</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>36195</v>
+        <v>34243</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06102507825159757</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0407063273014304</v>
+        <v>0.03880793868322227</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08959416721463324</v>
+        <v>0.08476241600901444</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>68</v>
@@ -1654,19 +1654,19 @@
         <v>67500</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>52290</v>
+        <v>53361</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>83288</v>
+        <v>83687</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08536788697309652</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06613114231391769</v>
+        <v>0.06748643663313388</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1053356507367481</v>
+        <v>0.1058393840426611</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>343863</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>330578</v>
+        <v>330154</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>355285</v>
+        <v>354580</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8892018099110454</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.854848438115693</v>
+        <v>0.8537506129246014</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9187370178812938</v>
+        <v>0.916913646280818</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>372</v>
@@ -1704,19 +1704,19 @@
         <v>379333</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>367791</v>
+        <v>369743</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>387541</v>
+        <v>388308</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9389749217484025</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.910405832785367</v>
+        <v>0.9152375839909855</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.95929367269857</v>
+        <v>0.9611920613167774</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>720</v>
@@ -1725,19 +1725,19 @@
         <v>723196</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>707408</v>
+        <v>707009</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>738406</v>
+        <v>737335</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9146321130269035</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8946643492632519</v>
+        <v>0.8941606159573388</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9338688576860823</v>
+        <v>0.9325135633668661</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>51392</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>39899</v>
+        <v>40086</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>65936</v>
+        <v>63942</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1756480948414044</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1363690707357835</v>
+        <v>0.1370065169692271</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2253568521311989</v>
+        <v>0.2185438529724239</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>55</v>
@@ -1850,19 +1850,19 @@
         <v>51573</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>40899</v>
+        <v>40416</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>65794</v>
+        <v>65485</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1503867622924277</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1192612526892001</v>
+        <v>0.1178538194412811</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1918562220259318</v>
+        <v>0.1909559881828286</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>109</v>
@@ -1871,19 +1871,19 @@
         <v>102964</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>83897</v>
+        <v>85090</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>120722</v>
+        <v>120257</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1620167210120242</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1320130368883525</v>
+        <v>0.1338912367664231</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1899593804157672</v>
+        <v>0.1892277609598502</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>241191</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>226647</v>
+        <v>228641</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>252684</v>
+        <v>252497</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8243519051585957</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7746431478688013</v>
+        <v>0.7814561470275762</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8636309292642167</v>
+        <v>0.8629934830307728</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>316</v>
@@ -1921,19 +1921,19 @@
         <v>291361</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>277140</v>
+        <v>277449</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>302035</v>
+        <v>302518</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8496132377075724</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.808143777974068</v>
+        <v>0.8090440118171714</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8807387473107999</v>
+        <v>0.8821461805587189</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>565</v>
@@ -1942,19 +1942,19 @@
         <v>532553</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>514795</v>
+        <v>515260</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>551620</v>
+        <v>550427</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8379832789879758</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8100406195842329</v>
+        <v>0.8107722390401498</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8679869631116486</v>
+        <v>0.8661087632335769</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>63880</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>51831</v>
+        <v>53081</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>78530</v>
+        <v>78544</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3043615250515943</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2469499278755042</v>
+        <v>0.2529055841122638</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3741585620516888</v>
+        <v>0.3742275759758089</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>67</v>
@@ -2067,19 +2067,19 @@
         <v>74987</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>59667</v>
+        <v>59312</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>90835</v>
+        <v>91889</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2245736124086157</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1786926193790302</v>
+        <v>0.1776297165904165</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.272035058050262</v>
+        <v>0.2751913641600332</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>134</v>
@@ -2088,19 +2088,19 @@
         <v>138867</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>118975</v>
+        <v>119387</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>160944</v>
+        <v>161323</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2553687653962284</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2187877322204049</v>
+        <v>0.2195456392175051</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2959674499107994</v>
+        <v>0.2966635582642771</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>146003</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>131353</v>
+        <v>131339</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>158052</v>
+        <v>156802</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6956384749484057</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6258414379483122</v>
+        <v>0.6257724240241912</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7530500721244963</v>
+        <v>0.7470944158877362</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>223</v>
@@ -2138,19 +2138,19 @@
         <v>258921</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>243073</v>
+        <v>242019</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>274241</v>
+        <v>274596</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7754263875913843</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7279649419497379</v>
+        <v>0.7248086358399668</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8213073806209698</v>
+        <v>0.8223702834095834</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>376</v>
@@ -2159,19 +2159,19 @@
         <v>404924</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>382847</v>
+        <v>382468</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>424816</v>
+        <v>424404</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7446312346037717</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7040325500892004</v>
+        <v>0.7033364417357226</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7812122677795952</v>
+        <v>0.7804543607824947</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>177307</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>153998</v>
+        <v>152246</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>203007</v>
+        <v>205139</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05413086828946344</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04701473760902383</v>
+        <v>0.04647995210003563</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06197690694846397</v>
+        <v>0.06262788442612696</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>172</v>
@@ -2284,19 +2284,19 @@
         <v>178944</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>154238</v>
+        <v>155720</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>206959</v>
+        <v>212093</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05295454841310784</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04564337302289133</v>
+        <v>0.04608203556340804</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06124516687195319</v>
+        <v>0.06276424115038762</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>356</v>
@@ -2305,19 +2305,19 @@
         <v>356251</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>319172</v>
+        <v>320578</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>390741</v>
+        <v>396093</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05353354556355526</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04796178708258186</v>
+        <v>0.04817304363647343</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05871641829492615</v>
+        <v>0.05952064703266779</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>3098218</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3072518</v>
+        <v>3070386</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3121527</v>
+        <v>3123279</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9458691317105365</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.938023093051536</v>
+        <v>0.937372115573873</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9529852623909761</v>
+        <v>0.9535200478999643</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3125</v>
@@ -2355,19 +2355,19 @@
         <v>3200253</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3172238</v>
+        <v>3167104</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3224959</v>
+        <v>3223477</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9470454515868921</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9387548331280472</v>
+        <v>0.9372357588496124</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9543566269771088</v>
+        <v>0.953917964436592</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6154</v>
@@ -2376,19 +2376,19 @@
         <v>6298471</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6263981</v>
+        <v>6258629</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6335550</v>
+        <v>6334144</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9464664544364447</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9412835817050739</v>
+        <v>0.9404793529673322</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9520382129174182</v>
+        <v>0.9518269563635265</v>
       </c>
     </row>
     <row r="27">
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5714</v>
+        <v>5301</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002118703446042427</v>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01261145254994298</v>
+        <v>0.01169905621406799</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -2747,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5624</v>
+        <v>4964</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002310552161659113</v>
@@ -2756,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01309931277815448</v>
+        <v>0.0115625943413878</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -2768,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6819</v>
+        <v>7240</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002212044361835837</v>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.007727793593681953</v>
+        <v>0.008205036748240444</v>
       </c>
     </row>
     <row r="5">
@@ -2794,7 +2794,7 @@
         <v>452145</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>447391</v>
+        <v>447804</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>453105</v>
@@ -2803,7 +2803,7 @@
         <v>0.9978812965539575</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.987388547450057</v>
+        <v>0.9883009437859315</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -2815,7 +2815,7 @@
         <v>428347</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>423715</v>
+        <v>424375</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>429339</v>
@@ -2824,7 +2824,7 @@
         <v>0.9976894478383409</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9869006872218444</v>
+        <v>0.9884374056586122</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2836,7 +2836,7 @@
         <v>880493</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>875626</v>
+        <v>875205</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>882445</v>
@@ -2845,7 +2845,7 @@
         <v>0.9977879556381641</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9922722064063181</v>
+        <v>0.9917949632517603</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -2940,19 +2940,19 @@
         <v>3939</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11456</v>
+        <v>10960</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005740294685741795</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001494321478962189</v>
+        <v>0.001491942851434808</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01669429285350187</v>
+        <v>0.0159710632571954</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6529</v>
+        <v>4721</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.001535038898054345</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01071648103509988</v>
+        <v>0.007749326219829435</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -2982,19 +2982,19 @@
         <v>4874</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1849</v>
+        <v>1042</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12494</v>
+        <v>12615</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.003762683233199435</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00142752051145687</v>
+        <v>0.0008044667400628624</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.009644142637213658</v>
+        <v>0.009737983102067383</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>682299</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>674782</v>
+        <v>675278</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>685213</v>
+        <v>685214</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9942597053142582</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9833057071464977</v>
+        <v>0.9840289367428033</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9985056785210378</v>
+        <v>0.9985080571485652</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>569</v>
@@ -3032,7 +3032,7 @@
         <v>608279</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>602685</v>
+        <v>604493</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>609214</v>
@@ -3041,7 +3041,7 @@
         <v>0.9984649611019456</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9892835189649002</v>
+        <v>0.9922506737801705</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -3053,19 +3053,19 @@
         <v>1290577</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1282957</v>
+        <v>1282836</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1293602</v>
+        <v>1294409</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9962373167668006</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9903558573627862</v>
+        <v>0.9902620168979325</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9985724794885431</v>
+        <v>0.999195533259937</v>
       </c>
     </row>
     <row r="9">
@@ -3160,16 +3160,16 @@
         <v>1886</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10080</v>
+        <v>10733</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007274644979739689</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002773916262557893</v>
+        <v>0.002773365299941347</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01482180807112635</v>
+        <v>0.01578243238872729</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -3178,19 +3178,19 @@
         <v>9831</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4598</v>
+        <v>4842</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18075</v>
+        <v>19098</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01386959173860653</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006486447925316145</v>
+        <v>0.006830789347431066</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02550005556801713</v>
+        <v>0.02694310622472954</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -3199,19 +3199,19 @@
         <v>14778</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8072</v>
+        <v>8058</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>24965</v>
+        <v>23916</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01064044408035628</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005811949330005274</v>
+        <v>0.005801442576416714</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01797495812475568</v>
+        <v>0.01721986245054877</v>
       </c>
     </row>
     <row r="11">
@@ -3228,7 +3228,7 @@
         <v>675107</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>669974</v>
+        <v>669321</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>678168</v>
@@ -3237,10 +3237,10 @@
         <v>0.9927253550202603</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9851781919288736</v>
+        <v>0.9842175676112723</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.997226083737442</v>
+        <v>0.9972266347000587</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>656</v>
@@ -3249,19 +3249,19 @@
         <v>699001</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>690757</v>
+        <v>689734</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>704234</v>
+        <v>703990</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9861304082613934</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9744999444319828</v>
+        <v>0.9730568937752707</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9935135520746841</v>
+        <v>0.9931692106525689</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1300</v>
@@ -3270,19 +3270,19 @@
         <v>1374108</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1363921</v>
+        <v>1364970</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1380814</v>
+        <v>1380828</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9893595559196438</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9820250418752443</v>
+        <v>0.9827801375494513</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9941880506699947</v>
+        <v>0.9941985574235833</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>13605</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6935</v>
+        <v>7174</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23423</v>
+        <v>23224</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02213538188006163</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01128376794165132</v>
+        <v>0.01167156880303364</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03811069310253875</v>
+        <v>0.03778659001120057</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -3395,19 +3395,19 @@
         <v>7552</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3241</v>
+        <v>3218</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15211</v>
+        <v>15165</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01229854903697348</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005278443576057661</v>
+        <v>0.005240868508486031</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02477109930650982</v>
+        <v>0.02469549883853544</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -3416,19 +3416,19 @@
         <v>21157</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13540</v>
+        <v>13660</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>32244</v>
+        <v>33274</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01721914357382267</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01102010517266214</v>
+        <v>0.01111739680636917</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02624221595541417</v>
+        <v>0.02708089480998845</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>601012</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>591194</v>
+        <v>591393</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>607682</v>
+        <v>607443</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9778646181199384</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9618893068974612</v>
+        <v>0.9622134099887995</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9887162320583487</v>
+        <v>0.9883284311969665</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>530</v>
@@ -3466,19 +3466,19 @@
         <v>606520</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>598861</v>
+        <v>598907</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>610831</v>
+        <v>610854</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9877014509630265</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9752289006934901</v>
+        <v>0.9753045011614646</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9947215564239423</v>
+        <v>0.994759131491514</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1066</v>
@@ -3487,19 +3487,19 @@
         <v>1207532</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1196445</v>
+        <v>1195415</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1215149</v>
+        <v>1215029</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9827808564261773</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9737577840445857</v>
+        <v>0.9729191051900111</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9889798948273373</v>
+        <v>0.9888826031936307</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>36102</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>26227</v>
+        <v>25883</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>48341</v>
+        <v>49588</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08428346607022585</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06122871101459823</v>
+        <v>0.06042686212191914</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.112854572852381</v>
+        <v>0.1157663445130474</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>26</v>
@@ -3612,19 +3612,19 @@
         <v>27061</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18657</v>
+        <v>17734</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>39370</v>
+        <v>37770</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0605704475438569</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04176005418437139</v>
+        <v>0.03969267334733101</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08811946806872747</v>
+        <v>0.08453969643189602</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>61</v>
@@ -3633,19 +3633,19 @@
         <v>63164</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>49431</v>
+        <v>48718</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>80023</v>
+        <v>78529</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07217723177002319</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05648532507138754</v>
+        <v>0.05567026971931745</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09144224498896039</v>
+        <v>0.08973484640034406</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>392242</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>380003</v>
+        <v>378756</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>402117</v>
+        <v>402461</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9157165339297741</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.887145427147619</v>
+        <v>0.8842336554869528</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9387712889854019</v>
+        <v>0.9395731378780809</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>379</v>
@@ -3683,19 +3683,19 @@
         <v>419715</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>407406</v>
+        <v>409006</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>428119</v>
+        <v>429042</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9394295524561431</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9118805319312725</v>
+        <v>0.915460303568104</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9582399458156287</v>
+        <v>0.960307326652669</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>736</v>
@@ -3704,19 +3704,19 @@
         <v>811955</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>795096</v>
+        <v>796590</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>825688</v>
+        <v>826401</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9278227682299768</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9085577550110399</v>
+        <v>0.910265153599656</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9435146749286124</v>
+        <v>0.9443297302806825</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>46387</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>35901</v>
+        <v>35056</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>61439</v>
+        <v>59508</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1507071401726761</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.116639240107232</v>
+        <v>0.1138926611843368</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1996103138689385</v>
+        <v>0.1933374150782893</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>36</v>
@@ -3829,19 +3829,19 @@
         <v>36955</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>27091</v>
+        <v>27301</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>49996</v>
+        <v>50363</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1046886776541324</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07674420542944216</v>
+        <v>0.07734080529513389</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1416304256386285</v>
+        <v>0.1426718590191348</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>80</v>
@@ -3850,19 +3850,19 @@
         <v>83342</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>65338</v>
+        <v>68718</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>102014</v>
+        <v>102290</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1261238288883229</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09887747482411549</v>
+        <v>0.1039930432590637</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1543810011490199</v>
+        <v>0.1547981716924797</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>261408</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>246356</v>
+        <v>248287</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>271894</v>
+        <v>272739</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8492928598273239</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8003896861310614</v>
+        <v>0.8066625849217105</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.883360759892768</v>
+        <v>0.8861073388156631</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>307</v>
@@ -3900,19 +3900,19 @@
         <v>316046</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>303005</v>
+        <v>302638</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>325910</v>
+        <v>325700</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8953113223458676</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8583695743613715</v>
+        <v>0.857328140980865</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9232557945705578</v>
+        <v>0.922659194704866</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>544</v>
@@ -3921,19 +3921,19 @@
         <v>577454</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>558782</v>
+        <v>558506</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>595458</v>
+        <v>592078</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8738761711116771</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8456189988509799</v>
+        <v>0.8452018283075201</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9011225251758845</v>
+        <v>0.8960069567409361</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>74548</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>59434</v>
+        <v>59895</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>89700</v>
+        <v>90414</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2983704354201001</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2378788526590787</v>
+        <v>0.2397225980771702</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3590153373979844</v>
+        <v>0.3618735915338391</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>79</v>
@@ -4046,19 +4046,19 @@
         <v>87133</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>71969</v>
+        <v>70803</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>105838</v>
+        <v>105740</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2246075869591921</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1855171279603444</v>
+        <v>0.1825127293098505</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2728221861236747</v>
+        <v>0.2725715087778722</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>145</v>
@@ -4067,19 +4067,19 @@
         <v>161682</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>139240</v>
+        <v>140529</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>183636</v>
+        <v>185864</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.253503948017007</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2183170297602521</v>
+        <v>0.2203388090467298</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2879261587031369</v>
+        <v>0.291420862689902</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>175303</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>160151</v>
+        <v>159437</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>190417</v>
+        <v>189956</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7016295645798999</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6409846626020156</v>
+        <v>0.638126408466161</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7621211473409212</v>
+        <v>0.7602774019228299</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>270</v>
@@ -4117,19 +4117,19 @@
         <v>300803</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>282098</v>
+        <v>282196</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>315967</v>
+        <v>317133</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.775392413040808</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7271778138763253</v>
+        <v>0.7274284912221278</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8144828720396555</v>
+        <v>0.8174872706901495</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>426</v>
@@ -4138,19 +4138,19 @@
         <v>476105</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>454151</v>
+        <v>451923</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>498547</v>
+        <v>497258</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.746496051982993</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7120738412968631</v>
+        <v>0.708579137310098</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7816829702397479</v>
+        <v>0.7796611909532702</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>180488</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>153986</v>
+        <v>155433</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>207854</v>
+        <v>209953</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05277435208726083</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04502497499572403</v>
+        <v>0.04544814033705339</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06077608485426605</v>
+        <v>0.06138974272855036</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>159</v>
@@ -4263,19 +4263,19 @@
         <v>170460</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>148462</v>
+        <v>147936</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>196412</v>
+        <v>199360</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0480282656896413</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04183017457217149</v>
+        <v>0.04168181964496705</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05534014423076206</v>
+        <v>0.05617083264478458</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>325</v>
@@ -4284,19 +4284,19 @@
         <v>350949</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>313249</v>
+        <v>317232</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>388440</v>
+        <v>390457</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05035732682810355</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04494774127067262</v>
+        <v>0.04551933752117942</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05573682442305803</v>
+        <v>0.05602626753457222</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>3239515</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3212149</v>
+        <v>3210050</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3266017</v>
+        <v>3264570</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9472256479127391</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.939223915145734</v>
+        <v>0.9386102572714499</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.954975025004276</v>
+        <v>0.9545518596629465</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3130</v>
@@ -4334,19 +4334,19 @@
         <v>3378710</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3352758</v>
+        <v>3349810</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3400708</v>
+        <v>3401234</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9519717343103588</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9446598557692379</v>
+        <v>0.9438291673552155</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9581698254278285</v>
+        <v>0.958318180355033</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6167</v>
@@ -4355,19 +4355,19 @@
         <v>6618224</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6580733</v>
+        <v>6578716</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6655924</v>
+        <v>6651941</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9496426731718964</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9442631755769421</v>
+        <v>0.9439737324654277</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9550522587293274</v>
+        <v>0.9544806624788207</v>
       </c>
     </row>
     <row r="27">
@@ -4718,7 +4718,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5041</v>
+        <v>5988</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002528126273988685</v>
@@ -4727,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01273743493962858</v>
+        <v>0.01513115761578473</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -4739,7 +4739,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5016</v>
+        <v>5044</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001227301923219751</v>
@@ -4748,7 +4748,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.006153076213108923</v>
+        <v>0.006186803020333229</v>
       </c>
     </row>
     <row r="5">
@@ -4778,7 +4778,7 @@
         <v>394754</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>390714</v>
+        <v>389767</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>395755</v>
@@ -4787,7 +4787,7 @@
         <v>0.9974718737260113</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9872625650603714</v>
+        <v>0.9848688423842152</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -4799,7 +4799,7 @@
         <v>814217</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>810202</v>
+        <v>810174</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>815218</v>
@@ -4808,7 +4808,7 @@
         <v>0.9987726980767803</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9938469237868911</v>
+        <v>0.9938131969796667</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9352</v>
+        <v>8722</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.00407907235625688</v>
@@ -4915,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01583725572715257</v>
+        <v>0.01476996650314175</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -4924,19 +4924,19 @@
         <v>5775</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1922</v>
+        <v>1954</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11621</v>
+        <v>11640</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01024827148479904</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.00340973188832425</v>
+        <v>0.00346762228310442</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02062090099849994</v>
+        <v>0.02065434725652796</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -4945,19 +4945,19 @@
         <v>8184</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3512</v>
+        <v>3782</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15029</v>
+        <v>14982</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.007091631163512124</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003043365024987012</v>
+        <v>0.003276973167879247</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01302304632879926</v>
+        <v>0.01298223468589127</v>
       </c>
     </row>
     <row r="8">
@@ -4974,7 +4974,7 @@
         <v>588087</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>581144</v>
+        <v>581774</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>590496</v>
@@ -4983,7 +4983,7 @@
         <v>0.9959209276437431</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9841627442728477</v>
+        <v>0.9852300334968583</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -4995,19 +4995,19 @@
         <v>557769</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>551923</v>
+        <v>551904</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>561622</v>
+        <v>561590</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.989751728515201</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9793790990015</v>
+        <v>0.9793456527434721</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9965902681116757</v>
+        <v>0.9965323777168955</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1138</v>
@@ -5016,19 +5016,19 @@
         <v>1145856</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1139011</v>
+        <v>1139058</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1150528</v>
+        <v>1150258</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9929083688364879</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9869769536712008</v>
+        <v>0.9870177653141087</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9969566349750129</v>
+        <v>0.9967230268321208</v>
       </c>
     </row>
     <row r="9">
@@ -5123,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6059</v>
+        <v>6520</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002915885182703055</v>
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.009055958414456314</v>
+        <v>0.009744353439938087</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -5141,19 +5141,19 @@
         <v>5671</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1940</v>
+        <v>1903</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11548</v>
+        <v>11491</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.008574684282978881</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0029339135131634</v>
+        <v>0.002877685929528341</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01746046372396246</v>
+        <v>0.01737345930190271</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -5162,19 +5162,19 @@
         <v>7622</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3748</v>
+        <v>2969</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14021</v>
+        <v>14408</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005728887804745523</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002816770087569922</v>
+        <v>0.002231740918754067</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01053813653972019</v>
+        <v>0.01082935953186908</v>
       </c>
     </row>
     <row r="11">
@@ -5191,7 +5191,7 @@
         <v>667146</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>663038</v>
+        <v>662577</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>669097</v>
@@ -5200,7 +5200,7 @@
         <v>0.997084114817297</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9909440415855437</v>
+        <v>0.990255646560062</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -5212,19 +5212,19 @@
         <v>655715</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>649838</v>
+        <v>649895</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>659446</v>
+        <v>659483</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9914253157170211</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9825395362760374</v>
+        <v>0.9826265406980973</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9970660864868366</v>
+        <v>0.9971223140704717</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1295</v>
@@ -5233,19 +5233,19 @@
         <v>1322861</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1316462</v>
+        <v>1316075</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1326735</v>
+        <v>1327514</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9942711121952544</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9894618634602808</v>
+        <v>0.9891706404681311</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9971832299124301</v>
+        <v>0.9977682590812459</v>
       </c>
     </row>
     <row r="12">
@@ -5337,19 +5337,19 @@
         <v>19545</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12413</v>
+        <v>12231</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>31615</v>
+        <v>29812</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0302525236402529</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01921381583090449</v>
+        <v>0.01893234251028221</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04893537004508596</v>
+        <v>0.04614566203269133</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -5358,19 +5358,19 @@
         <v>14658</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8261</v>
+        <v>8204</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>24128</v>
+        <v>23652</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02258218044242536</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01272655182359675</v>
+        <v>0.01263940554746769</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03717277429178548</v>
+        <v>0.03643927283218057</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>32</v>
@@ -5379,19 +5379,19 @@
         <v>34202</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>24060</v>
+        <v>24115</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>48239</v>
+        <v>47615</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02640838352076727</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01857720803323464</v>
+        <v>0.01861965398669902</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03724624402977665</v>
+        <v>0.03676445894016769</v>
       </c>
     </row>
     <row r="14">
@@ -5408,19 +5408,19 @@
         <v>626503</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>614433</v>
+        <v>616236</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>633635</v>
+        <v>633817</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9697474763597471</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9510646299549141</v>
+        <v>0.9538543379673087</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9807861841690956</v>
+        <v>0.9810676574897178</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>588</v>
@@ -5429,19 +5429,19 @@
         <v>634419</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>624949</v>
+        <v>625425</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>640816</v>
+        <v>640873</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9774178195575747</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9628272257082146</v>
+        <v>0.9635607271678197</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9872734481764032</v>
+        <v>0.9873605944525324</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1152</v>
@@ -5450,19 +5450,19 @@
         <v>1260923</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1246886</v>
+        <v>1247510</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1271065</v>
+        <v>1271010</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9735916164792328</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9627537559702234</v>
+        <v>0.9632355410598323</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9814227919667654</v>
+        <v>0.981380346013301</v>
       </c>
     </row>
     <row r="15">
@@ -5554,19 +5554,19 @@
         <v>50835</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>38556</v>
+        <v>38405</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>66562</v>
+        <v>67728</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1063684360058329</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08067533124197997</v>
+        <v>0.08035798003340566</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1392758145315141</v>
+        <v>0.1417147823166504</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -5575,19 +5575,19 @@
         <v>14369</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7741</v>
+        <v>7821</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>24451</v>
+        <v>22513</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02892116415026479</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01558062330078493</v>
+        <v>0.01574165427457306</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04921302838319142</v>
+        <v>0.04531144735321019</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>57</v>
@@ -5596,19 +5596,19 @@
         <v>65205</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>49547</v>
+        <v>49578</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>83113</v>
+        <v>81881</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06689274623878469</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05082966195427292</v>
+        <v>0.0508618659805553</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08526419854441211</v>
+        <v>0.08400086212337902</v>
       </c>
     </row>
     <row r="17">
@@ -5625,19 +5625,19 @@
         <v>427083</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>411356</v>
+        <v>410190</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>439362</v>
+        <v>439513</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8936315639941671</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8607241854684859</v>
+        <v>0.8582852176833494</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.91932466875802</v>
+        <v>0.9196420199665941</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>420</v>
@@ -5646,19 +5646,19 @@
         <v>482480</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>472398</v>
+        <v>474336</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>489108</v>
+        <v>489028</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9710788358497352</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9507869716168095</v>
+        <v>0.9546885526467898</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9844193766992151</v>
+        <v>0.9842583457254269</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>800</v>
@@ -5667,19 +5667,19 @@
         <v>909562</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>891654</v>
+        <v>892886</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>925220</v>
+        <v>925189</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9331072537612153</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.914735801455588</v>
+        <v>0.9159991378766212</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9491703380457271</v>
+        <v>0.9491381340194448</v>
       </c>
     </row>
     <row r="18">
@@ -5771,19 +5771,19 @@
         <v>66866</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>53971</v>
+        <v>51847</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>82917</v>
+        <v>81852</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2000012381193146</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1614307491443949</v>
+        <v>0.1550763001619968</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2480085957697302</v>
+        <v>0.244823297237991</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>48</v>
@@ -5792,19 +5792,19 @@
         <v>50675</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>37861</v>
+        <v>38271</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>65523</v>
+        <v>64484</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1341453362807839</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1002237469681793</v>
+        <v>0.1013091408033502</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1734493804630855</v>
+        <v>0.170700232557135</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>113</v>
@@ -5813,19 +5813,19 @@
         <v>117541</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>99506</v>
+        <v>100193</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>140783</v>
+        <v>138920</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1650649415394872</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1397379208059045</v>
+        <v>0.1407026113745717</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1977039035648454</v>
+        <v>0.1950876335737669</v>
       </c>
     </row>
     <row r="20">
@@ -5842,19 +5842,19 @@
         <v>267464</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>251413</v>
+        <v>252478</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>280359</v>
+        <v>282483</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7999987618806854</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7519914042302699</v>
+        <v>0.7551767027620097</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8385692508556052</v>
+        <v>0.8449236998380037</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>306</v>
@@ -5863,19 +5863,19 @@
         <v>327087</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>312239</v>
+        <v>313278</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>339901</v>
+        <v>339491</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8658546637192162</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8265506195369144</v>
+        <v>0.829299767442865</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8997762530318206</v>
+        <v>0.8986908591966498</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>566</v>
@@ -5884,19 +5884,19 @@
         <v>594551</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>571309</v>
+        <v>573172</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>612586</v>
+        <v>611899</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8349350584605127</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8022960964351545</v>
+        <v>0.8049123664262331</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8602620791940955</v>
+        <v>0.8592973886254283</v>
       </c>
     </row>
     <row r="21">
@@ -5988,19 +5988,19 @@
         <v>61494</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>49238</v>
+        <v>49921</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>74246</v>
+        <v>74260</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2392783590944112</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.191588979541652</v>
+        <v>0.1942457122710546</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.28889806792875</v>
+        <v>0.2889511434460745</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>74</v>
@@ -6009,19 +6009,19 @@
         <v>98835</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>79095</v>
+        <v>81299</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>120092</v>
+        <v>118333</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2469831266727893</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1976541134979758</v>
+        <v>0.2031612659967769</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3001030621974143</v>
+        <v>0.295707768755203</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>146</v>
@@ -6030,19 +6030,19 @@
         <v>160329</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>137871</v>
+        <v>138276</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>185927</v>
+        <v>181928</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2439700267076051</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2097959512911879</v>
+        <v>0.2104129645579681</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2829216201971629</v>
+        <v>0.2768374708816414</v>
       </c>
     </row>
     <row r="23">
@@ -6059,19 +6059,19 @@
         <v>195504</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>182752</v>
+        <v>182738</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>207760</v>
+        <v>207077</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7607216409055888</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7111019320712503</v>
+        <v>0.7110488565539252</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8084110204583479</v>
+        <v>0.8057542877289453</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>227</v>
@@ -6080,19 +6080,19 @@
         <v>301334</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>280077</v>
+        <v>281836</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>321074</v>
+        <v>318870</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7530168733272107</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6998969378025859</v>
+        <v>0.7042922312447971</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8023458865020242</v>
+        <v>0.7968387340032231</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>457</v>
@@ -6101,19 +6101,19 @@
         <v>496838</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>471240</v>
+        <v>475239</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>519296</v>
+        <v>518891</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7560299732923949</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7170783798028371</v>
+        <v>0.7231625291183587</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.790204048708812</v>
+        <v>0.7895870354420319</v>
       </c>
     </row>
     <row r="24">
@@ -6205,19 +6205,19 @@
         <v>203100</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>176709</v>
+        <v>177323</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>233037</v>
+        <v>230818</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0598347614364412</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05205982256876356</v>
+        <v>0.05224068825749241</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06865452163784481</v>
+        <v>0.06800057011418693</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>162</v>
@@ -6226,19 +6226,19 @@
         <v>190984</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>162979</v>
+        <v>163423</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>221145</v>
+        <v>220999</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05388117087495888</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04598019206020279</v>
+        <v>0.0461056595878053</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06239024958886035</v>
+        <v>0.06234919574456235</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>365</v>
@@ -6247,19 +6247,19 @@
         <v>394084</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>354085</v>
+        <v>355729</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>435513</v>
+        <v>432931</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05679353370880336</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05102907691682794</v>
+        <v>0.05126600867880824</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06276412468613551</v>
+        <v>0.06239197226252492</v>
       </c>
     </row>
     <row r="26">
@@ -6276,19 +6276,19 @@
         <v>3191250</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3161313</v>
+        <v>3163532</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3217641</v>
+        <v>3217027</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9401652385635588</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9313454783621552</v>
+        <v>0.9319994298858131</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9479401774312365</v>
+        <v>0.9477593117425076</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3176</v>
@@ -6297,19 +6297,19 @@
         <v>3353558</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3323397</v>
+        <v>3323543</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3381563</v>
+        <v>3381119</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9461188291250411</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9376097504111398</v>
+        <v>0.9376508042554379</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9540198079397972</v>
+        <v>0.9538943404121949</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6204</v>
@@ -6318,19 +6318,19 @@
         <v>6544808</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6503379</v>
+        <v>6505961</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6584807</v>
+        <v>6583163</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9432064662911966</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9372358753138644</v>
+        <v>0.9376080277374751</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.948970923083172</v>
+        <v>0.9487339913211917</v>
       </c>
     </row>
     <row r="27">
@@ -6681,7 +6681,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17092</v>
+        <v>15101</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.008498092589629736</v>
@@ -6690,7 +6690,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04714986896475245</v>
+        <v>0.04165725605912234</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -6702,7 +6702,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17068</v>
+        <v>16947</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003999273245845687</v>
@@ -6711,7 +6711,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0221571346664099</v>
+        <v>0.02200061464444233</v>
       </c>
     </row>
     <row r="5">
@@ -6741,16 +6741,16 @@
         <v>359431</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>345420</v>
+        <v>347411</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>362512</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9915019074103704</v>
+        <v>0.9915019074103701</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9528501310352476</v>
+        <v>0.9583427439408776</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -6762,16 +6762,16 @@
         <v>767224</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>753237</v>
+        <v>753358</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>770305</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9960007267541544</v>
+        <v>0.9960007267541543</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9778428653335904</v>
+        <v>0.9779993853555575</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -6882,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6909</v>
+        <v>7261</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.003920306243557945</v>
@@ -6891,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01378904236965224</v>
+        <v>0.01449064520148521</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -6903,7 +6903,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>6832</v>
+        <v>6109</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.002008642828602942</v>
@@ -6912,7 +6912,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.006985367947968806</v>
+        <v>0.006246547002275214</v>
       </c>
     </row>
     <row r="8">
@@ -6942,7 +6942,7 @@
         <v>499119</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>494174</v>
+        <v>493822</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>501083</v>
@@ -6951,7 +6951,7 @@
         <v>0.996079693756442</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9862109576303485</v>
+        <v>0.9855093547985148</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -6963,16 +6963,16 @@
         <v>976009</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>971141</v>
+        <v>971864</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>977973</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9979913571713971</v>
+        <v>0.9979913571713969</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9930146320520316</v>
+        <v>0.9937534529977249</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -7070,16 +7070,16 @@
         <v>1153</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10493</v>
+        <v>10365</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006116589985813577</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001857896071919677</v>
+        <v>0.001856531002868254</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01690176527120367</v>
+        <v>0.01669449750629842</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -7088,19 +7088,19 @@
         <v>4369</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1503</v>
+        <v>1473</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8836</v>
+        <v>8777</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.007021836329813369</v>
+        <v>0.00702183632981337</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002415336213966205</v>
+        <v>0.002367480742704987</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01420306645159543</v>
+        <v>0.01410711225409301</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -7109,19 +7109,19 @@
         <v>8166</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3957</v>
+        <v>4194</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15607</v>
+        <v>16359</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006569687430277481</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003183367239061572</v>
+        <v>0.00337430727517633</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01255629834073364</v>
+        <v>0.01316103716997537</v>
       </c>
     </row>
     <row r="11">
@@ -7138,7 +7138,7 @@
         <v>617040</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>610344</v>
+        <v>610472</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>619684</v>
@@ -7147,10 +7147,10 @@
         <v>0.9938834100141865</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9830982347287963</v>
+        <v>0.9833055024937019</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9981421039280804</v>
+        <v>0.9981434689971318</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>840</v>
@@ -7159,19 +7159,19 @@
         <v>617770</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>613303</v>
+        <v>613362</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>620636</v>
+        <v>620666</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9929781636701868</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9857969335484045</v>
+        <v>0.9858928877459071</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9975846637860338</v>
+        <v>0.997632519257295</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1383</v>
@@ -7180,19 +7180,19 @@
         <v>1234810</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1227369</v>
+        <v>1226617</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1239019</v>
+        <v>1238782</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9934303125697226</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9874437016592663</v>
+        <v>0.9868389628300245</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9968166327609386</v>
+        <v>0.9966256927248235</v>
       </c>
     </row>
     <row r="12">
@@ -7284,19 +7284,19 @@
         <v>27616</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18124</v>
+        <v>18674</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>39302</v>
+        <v>40311</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.03941632024050888</v>
+        <v>0.03941632024050887</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02586909566879009</v>
+        <v>0.02665404220412003</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05609691603762697</v>
+        <v>0.0575365883252622</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -7305,19 +7305,19 @@
         <v>11668</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6962</v>
+        <v>7083</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17774</v>
+        <v>17915</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01583397797111229</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.009447462491357734</v>
+        <v>0.009611435887348403</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02412046214263971</v>
+        <v>0.02431218250932993</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>44</v>
@@ -7326,19 +7326,19 @@
         <v>39284</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>29324</v>
+        <v>27741</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>53391</v>
+        <v>54071</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.02732764964278395</v>
+        <v>0.02732764964278396</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02039929441957989</v>
+        <v>0.01929815008025907</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03714178219548656</v>
+        <v>0.03761472100449347</v>
       </c>
     </row>
     <row r="14">
@@ -7355,19 +7355,19 @@
         <v>673001</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>661315</v>
+        <v>660306</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>682493</v>
+        <v>681943</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9605836797594913</v>
+        <v>0.960583679759491</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9439030839623735</v>
+        <v>0.9424634116747376</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9741309043312101</v>
+        <v>0.9733459577958801</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1123</v>
@@ -7376,19 +7376,19 @@
         <v>725218</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>719112</v>
+        <v>718971</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>729924</v>
+        <v>729803</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9841660220288877</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9758795378573604</v>
+        <v>0.9756878174906701</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9905525375086423</v>
+        <v>0.9903885641126515</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1762</v>
@@ -7397,19 +7397,19 @@
         <v>1398220</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1384113</v>
+        <v>1383433</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1408180</v>
+        <v>1409763</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.972672350357216</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9628582178045133</v>
+        <v>0.962385278995506</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.97960070558042</v>
+        <v>0.980701849919741</v>
       </c>
     </row>
     <row r="15">
@@ -7501,19 +7501,19 @@
         <v>46170</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>35348</v>
+        <v>34891</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>59924</v>
+        <v>59734</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.0758924475277675</v>
+        <v>0.07589244752776748</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0581034480559079</v>
+        <v>0.05735332430966451</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09850025459256767</v>
+        <v>0.09818908429650856</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>43</v>
@@ -7522,19 +7522,19 @@
         <v>27604</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>20511</v>
+        <v>20350</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>38213</v>
+        <v>37016</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04549667378623685</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03380520263860722</v>
+        <v>0.03353999716438646</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06298148213539946</v>
+        <v>0.06100811189107387</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>95</v>
@@ -7543,19 +7543,19 @@
         <v>73774</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>58822</v>
+        <v>59115</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>88022</v>
+        <v>88713</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06071486000172713</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04840908483408554</v>
+        <v>0.04865033022283598</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07244029108351284</v>
+        <v>0.07300909426199514</v>
       </c>
     </row>
     <row r="17">
@@ -7572,19 +7572,19 @@
         <v>562189</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>548435</v>
+        <v>548625</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>573011</v>
+        <v>573468</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9241075524722325</v>
+        <v>0.9241075524722328</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9014997454074325</v>
+        <v>0.9018109157034913</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9418965519440921</v>
+        <v>0.9426466756903353</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>956</v>
@@ -7593,19 +7593,19 @@
         <v>579132</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>568523</v>
+        <v>569720</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>586225</v>
+        <v>586386</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9545033262137631</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9370185178646006</v>
+        <v>0.9389918881089262</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9661947973613925</v>
+        <v>0.9664600028356136</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1566</v>
@@ -7614,19 +7614,19 @@
         <v>1141321</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1127073</v>
+        <v>1126382</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1156273</v>
+        <v>1155980</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.939285139998273</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9275597089164872</v>
+        <v>0.926990905738005</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9515909151659144</v>
+        <v>0.9513496697771641</v>
       </c>
     </row>
     <row r="18">
@@ -7718,19 +7718,19 @@
         <v>50801</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>40876</v>
+        <v>40325</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>62286</v>
+        <v>62917</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1247928954271612</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1004138885930577</v>
+        <v>0.09905911700979185</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.153007406395804</v>
+        <v>0.1545557438501637</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>67</v>
@@ -7739,19 +7739,19 @@
         <v>36381</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>28337</v>
+        <v>28361</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>45339</v>
+        <v>46326</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08284025198471531</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06452452048365345</v>
+        <v>0.06458026742899782</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.103239121281029</v>
+        <v>0.1054866120391881</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>143</v>
@@ -7760,19 +7760,19 @@
         <v>87181</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>73772</v>
+        <v>73809</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>101091</v>
+        <v>102160</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1030212305802269</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08717530327760974</v>
+        <v>0.08721922053115994</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1194581285059653</v>
+        <v>0.1207219022699187</v>
       </c>
     </row>
     <row r="20">
@@ -7789,19 +7789,19 @@
         <v>356279</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>344794</v>
+        <v>344163</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>366204</v>
+        <v>366755</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8752071045728387</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.846992593604196</v>
+        <v>0.8454442561498364</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8995861114069423</v>
+        <v>0.9009408829902081</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>760</v>
@@ -7810,19 +7810,19 @@
         <v>402785</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>393827</v>
+        <v>392840</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>410829</v>
+        <v>410805</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9171597480152848</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.896760878718971</v>
+        <v>0.8945133879608119</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9354754795163461</v>
+        <v>0.9354197325710021</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1254</v>
@@ -7831,19 +7831,19 @@
         <v>759065</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>745155</v>
+        <v>744086</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>772474</v>
+        <v>772437</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8969787694197731</v>
+        <v>0.8969787694197732</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8805418714940347</v>
+        <v>0.8792780977300813</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9128246967223899</v>
+        <v>0.9127807794688398</v>
       </c>
     </row>
     <row r="21">
@@ -7935,19 +7935,19 @@
         <v>75850</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>63791</v>
+        <v>64799</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>89348</v>
+        <v>89522</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2445198177232716</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2056470287515492</v>
+        <v>0.2088964622641685</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2880343304706386</v>
+        <v>0.2885977361034618</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>208</v>
@@ -7956,19 +7956,19 @@
         <v>113779</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>100520</v>
+        <v>99870</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>128998</v>
+        <v>128238</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.245526518185119</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2169133729521269</v>
+        <v>0.2155117555711351</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.278365904854567</v>
+        <v>0.276727341645581</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>321</v>
@@ -7977,19 +7977,19 @@
         <v>189629</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>171693</v>
+        <v>169884</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>208643</v>
+        <v>209258</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.2451228553694135</v>
+        <v>0.2451228553694134</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2219384637673353</v>
+        <v>0.219600225168234</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.269701387756388</v>
+        <v>0.2704962754318165</v>
       </c>
     </row>
     <row r="23">
@@ -8006,19 +8006,19 @@
         <v>234348</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>220850</v>
+        <v>220676</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>246407</v>
+        <v>245399</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7554801822767283</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7119656695293615</v>
+        <v>0.7114022638965385</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7943529712484507</v>
+        <v>0.7911035377358314</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>671</v>
@@ -8027,19 +8027,19 @@
         <v>349631</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>334412</v>
+        <v>335172</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>362890</v>
+        <v>363540</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7544734818148811</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7216340951454329</v>
+        <v>0.7232726583544191</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7830866270478731</v>
+        <v>0.7844882444288648</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1016</v>
@@ -8048,19 +8048,19 @@
         <v>583979</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>564965</v>
+        <v>564350</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>601915</v>
+        <v>603724</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.7548771446305865</v>
+        <v>0.7548771446305866</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7302986122436118</v>
+        <v>0.7295037245681835</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7780615362326646</v>
+        <v>0.7803997748317659</v>
       </c>
     </row>
     <row r="24">
@@ -8152,19 +8152,19 @@
         <v>204233</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>179869</v>
+        <v>181418</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>229822</v>
+        <v>231258</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0578273898244307</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05092877560751885</v>
+        <v>0.05136723651055457</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06507268869030432</v>
+        <v>0.06547926145113234</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>345</v>
@@ -8173,19 +8173,19 @@
         <v>198846</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>178613</v>
+        <v>176613</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>221677</v>
+        <v>221040</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.05328229610739405</v>
+        <v>0.05328229610739404</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04786084518390744</v>
+        <v>0.04732481572855537</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05940008078495942</v>
+        <v>0.05922947699358394</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>615</v>
@@ -8194,19 +8194,19 @@
         <v>403079</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>367823</v>
+        <v>370603</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>438124</v>
+        <v>437519</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05549222081429454</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05063851515737276</v>
+        <v>0.05102124525646379</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06031684192540772</v>
+        <v>0.06023362422898087</v>
       </c>
     </row>
     <row r="26">
@@ -8223,19 +8223,19 @@
         <v>3327542</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3301953</v>
+        <v>3300517</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3351906</v>
+        <v>3350357</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9421726101755693</v>
+        <v>0.9421726101755694</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.934927311309696</v>
+        <v>0.9345207385488676</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.949071224392481</v>
+        <v>0.9486327634894454</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5014</v>
@@ -8244,19 +8244,19 @@
         <v>3533087</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3510256</v>
+        <v>3510893</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3553320</v>
+        <v>3555320</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9467177038926059</v>
+        <v>0.946717703892606</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9405999192150404</v>
+        <v>0.9407705230064159</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9521391548160925</v>
+        <v>0.952675184271444</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8119</v>
@@ -8265,19 +8265,19 @@
         <v>6860628</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6825583</v>
+        <v>6826188</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6895884</v>
+        <v>6893104</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9445077791857055</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.939683158074592</v>
+        <v>0.9397663757710191</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9493614848426271</v>
+        <v>0.9489787547435362</v>
       </c>
     </row>
     <row r="27">
